--- a/biology/Botanique/Elaeocarpus_angustifolius/Elaeocarpus_angustifolius.xlsx
+++ b/biology/Botanique/Elaeocarpus_angustifolius/Elaeocarpus_angustifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeocarpus angustifolius, le cerisier bleu, est un arbre à feuillage persistant présent dans le Sud-Est de l'Asie et le pacifique. Il a été introduit dans de nombreuses régions tropicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeocarpus angustifolius est un arbre pouvant atteindre 30 m de haut, au tronc élancé jusqu'à 1 m de diamètre. Les branches sont minces, peu ramifiées et les rameaux grêles et finement pubescents au sommet. 
 L'écorce, grisâtre et claire, est lisse.
@@ -519,7 +533,7 @@
 Les feuilles un peu échelonnées à l'extrémité des rameaux, brillantes, vert foncé sont simples alternes. Le limbe est elliptique, à sommet aigu et base atténuée (10-15 cm × 3-4 cm) est finement denté sauf à la base. La face supérieure glabre ou parfois pubescente vers la base ; la face inférieure glabre ou garnie de petits poils épars. La nervure médiane est souvent carénée en dessous et les nervures secondaires -10 à15 paires espacées de 0.5-2 cm - sont fines mais bien visibles. Le pétiole est long d'environ 1 cm, généralement étroitement ailé, soyeux à glabrescent, dépourvu de renflement au sommet, plat ou légèrement en creux au-dessus. 
 Les inflorescences nombreuses, dressées à horizontales, s'échelonnant dans les parties défeuillées des rameaux ou à l'aisselle des feuilles, sont très florifères et comportent 10 à 25 fleurs blanches pendant unilatéralement sur des axes de 3 à 8 cm. 
 La fleur, au calice, vert pâle, compte 5 sépales minces, longs de 0.6-1 cm, extérieurement et intérieurement garnis de poils soyeux et 5 pétales membraneux, longs de 0,9 à 1,5 cm, divisés jusqu'à mi-hauteur ou presque en 3-6 segments linéaires souvent garnis de poils dans les sinus les plus profonds, laineux sur les bords non involutés. Elle porte 30 à 50 étamines longues de 4 à 6 mm. L'ovaire comprend 4 à 6 ovules dans chacune des 4 loges ovariennes.  
-Le fruit, presque sphérique de 1 cm de diamètre, est bleu vif à maturité : il a donné le nom à l'essence. Une pulpe recouvre un noyau dur et rugueux contenant une à cinq graines (une par loge fertile)[1].
+Le fruit, presque sphérique de 1 cm de diamètre, est bleu vif à maturité : il a donné le nom à l'essence. Une pulpe recouvre un noyau dur et rugueux contenant une à cinq graines (une par loge fertile).
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerisier bleu est présent dans la forêt dense de basse et moyenne altitude (jusqu'à 500 m).
 Sa distribution est très large : de l'Asie tempérée Chine(Guangxi, Hainan, Yunnan) à l'Asie tropicale : Bangladesh, Bhoutan, Inde, Népal, Cambodge, Myanmar, Thaïlande, dans la zone Pacifique : Indonésie, Malaisie, Nouvelle-Guinée, archipel Bismarck, Fidji, Vanuatu, Nouvelle-Calédonie et aux îles Salomon et jusqu'en Australie (Queensland, Nouvelle-Galles du Sud).
@@ -580,7 +596,9 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonymes : Elaeocarpus ganitrus Roxb., Elaeocarpus grandis F. Muell., Elaeocarpus sphaericus auct., Ganitrus sphaerica Gaertn.
 </t>
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fruits sont utilisés pour la confection de colliers et rosaires hindous.
 Son bois, de couleur claire, est fin, relativement tendre et léger. Il convient à la menuiserie d'intérieur et au placage.
